--- a/TienCuoiCuaVo.xlsx
+++ b/TienCuoiCuaVo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Glacio\Desktop\Thiepmoi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PersonalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE87E29-1860-4636-99BA-DA8F4663D200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817361E5-414B-4FA0-82D4-2A3811B8C0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D4834D46-CA84-4A73-A458-7D2976904A12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D4834D46-CA84-4A73-A458-7D2976904A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Bạn Bè" sheetId="1" r:id="rId1"/>
@@ -697,17 +697,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38776EB-44C7-4706-A41F-7E9582786662}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -718,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -729,7 +729,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -740,7 +740,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -751,7 +751,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -773,7 +773,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -784,7 +784,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -795,7 +795,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -806,7 +806,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -817,7 +817,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -828,7 +828,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -839,7 +839,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -850,7 +850,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -861,7 +861,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -872,7 +872,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -883,7 +883,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -894,7 +894,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -905,7 +905,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -916,7 +916,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -927,7 +927,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -938,7 +938,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -949,7 +949,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -960,7 +960,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -971,7 +971,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -982,7 +982,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -993,7 +993,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>87</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>SUM(C2:C52)</f>
         <v>25700000</v>
@@ -1292,17 +1292,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9292EA31-CC88-4E59-8EA5-4DD13A26268B}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>36</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
         <f xml:space="preserve"> 23300000+ 14100000+ 4500000</f>
         <v>41900000</v>
@@ -1647,16 +1647,16 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1733,16 +1733,16 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14">
         <f>SUM(C2:C13)</f>
         <v>4500000</v>
